--- a/trunk/monografia/resultados.xlsx
+++ b/trunk/monografia/resultados.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,9 +428,10 @@
     <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -466,176 +467,363 @@
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <f>B2/(B2+E2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="3">
+        <f>C2/(C2+D2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="3">
+        <f>(B2+C2)/(B2+C2+D2+E2)</f>
+        <v>0.5</v>
+      </c>
       <c r="I2" s="3">
         <f>(D2+E2)/A16</f>
-        <v>0</v>
+        <v>7.776049766718507E-4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <f>B3/(B3+E3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="3">
+        <f>C3/(C3+D3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="3">
+        <f>(B3+C3)/(B3+C3+D3+E3)</f>
+        <v>0.5</v>
+      </c>
       <c r="I3" s="3">
         <f>(D3+E3)/A16</f>
-        <v>0</v>
+        <v>7.776049766718507E-4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <f>B4/(B4+E4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="3">
+        <f>C4/(C4+D4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="3">
+        <f>(B4+C4)/(B4+C4+D4+E4)</f>
+        <v>0.5</v>
+      </c>
       <c r="I4" s="3">
         <f>(D4+E4)/A16</f>
-        <v>0</v>
+        <v>7.776049766718507E-4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <f>B5/(B5+E5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="3">
+        <f>C5/(C5+D5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="3">
+        <f>(B5+C5)/(B5+C5+D5+E5)</f>
+        <v>0.5</v>
+      </c>
       <c r="I5" s="3">
         <f>(D5+E5)/A16</f>
-        <v>0</v>
+        <v>7.776049766718507E-4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <f>B6/(B6+E6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="3">
+        <f>C6/(C6+D6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="3">
+        <f>(B6+C6)/(B6+C6+D6+E6)</f>
+        <v>0.5</v>
+      </c>
       <c r="I6" s="3">
         <f>(D6+E6)/A16</f>
-        <v>0</v>
+        <v>7.776049766718507E-4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <f>B7/(B7+E7)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="3">
+        <f>C7/(C7+D7)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="3">
+        <f>(B7+C7)/(B7+C7+D7+E7)</f>
+        <v>0.5</v>
+      </c>
       <c r="I7" s="3">
         <f>(D7+E7)/A16</f>
-        <v>0</v>
+        <v>7.776049766718507E-4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <f>B8/(B8+E8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="3">
+        <f>C8/(C8+D8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="3">
+        <f>(B8+C8)/(B8+C8+D8+E8)</f>
+        <v>0.5</v>
+      </c>
       <c r="I8" s="3">
         <f>(D8+E8)/A16</f>
-        <v>0</v>
+        <v>7.776049766718507E-4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <f>B9/(B9+E9)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="3">
+        <f>C9/(C9+D9)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="3">
+        <f>(B9+C9)/(B9+C9+D9+E9)</f>
+        <v>0.5</v>
+      </c>
       <c r="I9" s="3">
         <f>(D9+E9)/A16</f>
-        <v>0</v>
+        <v>7.776049766718507E-4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <f>B10/(B10+E10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="3">
+        <f>C10/(C10+D10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="3">
+        <f>(B10+C10)/(B10+C10+D10+E10)</f>
+        <v>0.5</v>
+      </c>
       <c r="I10" s="3">
         <f>(D10+E10)/A16</f>
-        <v>0</v>
+        <v>7.776049766718507E-4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <f>B11/(B11+E11)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="3">
+        <f>C11/(C11+D11)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="3">
+        <f>(B11+C11)/(B11+C11+D11+E11)</f>
+        <v>0.5</v>
+      </c>
       <c r="I11" s="3">
         <f>(D11+E11)/A16</f>
-        <v>0</v>
+        <v>7.776049766718507E-4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <f>B12/(B12+E12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="3">
+        <f>C12/(C12+D12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="3">
+        <f>(B12+C12)/(B12+C12+D12+E12)</f>
+        <v>0.5</v>
+      </c>
       <c r="I12" s="3">
         <f>(D12+E12)/A16</f>
-        <v>0</v>
+        <v>7.776049766718507E-4</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
